--- a/biology/Zoologie/Antilopini/Antilopini.xlsx
+++ b/biology/Zoologie/Antilopini/Antilopini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Antilopini sont une tribu d'antilopes de la famille des Bovidae, comprenant notamment les différentes espèces appelées « gazelles » en français. Il s'agit du groupe le plus diversifié de la sous-famille des Antilopinae, comprenant 13 genres et plus de 30 espèces. Ce sont des ruminants de taille petite à moyenne, qui évoluent dans les habitats ouverts arides d'Afrique et d'Eurasie, avec des densités particulièrement élevées en Afrique de l'Est.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Antilopini ont été décrits comme l'un des groupes de bovidés les moins bien compris. La tribu appartient à la sous-famille des Antilopinae, un taxon qui comprend également les caprins et la plupart des antilopes africaines (gnous, céphalophes, impalas, cobes, etc.). Leur groupe frère sont les Bovinae, constitués notamment des bovins et des antilopes à cornes spiralées (Tragelaphini). Les plus anciens bovidés fossiles qui soient clairement attribuables à l'un des clades vivants (gazelles du début du Miocène moyen découvertes à Fort Ternan (en) au Kenya) appartiennent aux Antilopini, mais leurs relations phylogénétiques ne sont pas complètement résolues[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Antilopini ont été décrits comme l'un des groupes de bovidés les moins bien compris. La tribu appartient à la sous-famille des Antilopinae, un taxon qui comprend également les caprins et la plupart des antilopes africaines (gnous, céphalophes, impalas, cobes, etc.). Leur groupe frère sont les Bovinae, constitués notamment des bovins et des antilopes à cornes spiralées (Tragelaphini). Les plus anciens bovidés fossiles qui soient clairement attribuables à l'un des clades vivants (gazelles du début du Miocène moyen découvertes à Fort Ternan (en) au Kenya) appartiennent aux Antilopini, mais leurs relations phylogénétiques ne sont pas complètement résolues.
 Depuis le début du XXIe siècle, de nombreux chercheurs ont travaillé sur des phylogénies de bovidés incluant un grand nombre d'espèces d'Antilopini, et un consensus a émergé sur la composition taxonomique de ce clade, introduisant de nouveaux noms pour quatre sous-tribus :
 Antilopina
 genre Antilope
@@ -532,7 +546,7 @@
 genre Raphicerus
 genre Dorcatragus
 genre Madoqua
-Historiquement, Ourebia et les membres de Raphicerina étaient réunis avec d'autres espèces de petite taille à cornes courtes, des genres Neotragus et Oreotragus, pour former la tribu des Neotragini. Cet assemblage s'est avéré polyphylétique, les deux genres n'étant pas apparentés ni étroitement liés aux Antilopini[1].
+Historiquement, Ourebia et les membres de Raphicerina étaient réunis avec d'autres espèces de petite taille à cornes courtes, des genres Neotragus et Oreotragus, pour former la tribu des Neotragini. Cet assemblage s'est avéré polyphylétique, les deux genres n'étant pas apparentés ni étroitement liés aux Antilopini.
 </t>
         </is>
       </c>
